--- a/R_files_final/sample_data.xlsx
+++ b/R_files_final/sample_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tegin/Desktop/GitHub/COVID/R_files_final/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tegin/Desktop/GitHub2/SARS-CoV-2_in_housepets/R_files_final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE9C4E1-B5C2-854E-BBBE-402EF0CE71AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867A887F-1174-7D4A-9D8F-9FBC22F27F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="11240" windowHeight="16200" xr2:uid="{439BE0BE-855F-4A44-923B-5C85CB738245}"/>
+    <workbookView xWindow="820" yWindow="2720" windowWidth="26520" windowHeight="16200" xr2:uid="{439BE0BE-855F-4A44-923B-5C85CB738245}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="2" r:id="rId1"/>
@@ -550,12 +550,6 @@
     <t>Control_real</t>
   </si>
   <si>
-    <t>Real sample</t>
-  </si>
-  <si>
-    <t>Pre-2019 control</t>
-  </si>
-  <si>
     <t>Denny_run</t>
   </si>
   <si>
@@ -623,6 +617,12 @@
   </si>
   <si>
     <t>Vizsla</t>
+  </si>
+  <si>
+    <t>Housepet serum sample</t>
+  </si>
+  <si>
+    <t>Masked pre-2019 serological control</t>
   </si>
 </sst>
 </file>
@@ -1752,10 +1752,10 @@
   <dimension ref="A1:AA250"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F176" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="L186" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C199" sqref="C199"/>
+      <selection pane="bottomRight" activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1773,7 +1773,9 @@
     <col min="11" max="11" width="11.6640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="13.83203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="16.5" style="1" customWidth="1"/>
-    <col min="14" max="19" width="14.5" style="9" customWidth="1"/>
+    <col min="14" max="14" width="14.5" style="9" customWidth="1"/>
+    <col min="15" max="15" width="29.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="14.5" style="9" customWidth="1"/>
     <col min="20" max="20" width="27.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="26" width="27.83203125" style="1" customWidth="1"/>
     <col min="27" max="27" width="28.33203125" style="11" bestFit="1" customWidth="1"/>
@@ -1804,25 +1806,25 @@
         <v>113</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="N1" s="10" t="s">
         <v>173</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>175</v>
       </c>
       <c r="O1" s="10" t="s">
         <v>170</v>
@@ -2206,7 +2208,7 @@
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P8" s="11">
         <v>0.161</v>
@@ -2275,7 +2277,7 @@
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
       <c r="O9" s="11" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P9" s="11">
         <v>0.46100000000000002</v>
@@ -2338,7 +2340,7 @@
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P10" s="11">
         <v>0.16400000000000001</v>
@@ -2455,7 +2457,7 @@
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
       <c r="O12" s="11" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P12" s="11">
         <v>0.69</v>
@@ -2572,7 +2574,7 @@
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
       <c r="O14" s="11" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P14" s="11">
         <v>0.14699999999999999</v>
@@ -2689,7 +2691,7 @@
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="11" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P16" s="11">
         <v>0.89</v>
@@ -2858,7 +2860,7 @@
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
       <c r="O19" s="11" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P19" s="11">
         <v>0.44400000000000001</v>
@@ -3079,7 +3081,7 @@
       <c r="M23" s="11"/>
       <c r="N23" s="11"/>
       <c r="O23" s="11" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P23" s="11">
         <v>0.18</v>
@@ -3621,7 +3623,7 @@
       <c r="M33" s="11"/>
       <c r="N33" s="11"/>
       <c r="O33" s="11" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P33" s="11">
         <v>0.49</v>
@@ -3738,7 +3740,7 @@
       <c r="M35" s="11"/>
       <c r="N35" s="11"/>
       <c r="O35" s="11" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P35" s="11">
         <v>0.42599999999999999</v>
@@ -4063,7 +4065,7 @@
       <c r="M41" s="11"/>
       <c r="N41" s="11"/>
       <c r="O41" s="11" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P41" s="11">
         <v>1.7509999999999999</v>
@@ -4808,7 +4810,7 @@
       <c r="M55" s="11"/>
       <c r="N55" s="11"/>
       <c r="O55" s="11" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P55" s="11">
         <v>1.2869999999999999</v>
@@ -5033,7 +5035,7 @@
       <c r="M59" s="11"/>
       <c r="N59" s="11"/>
       <c r="O59" s="11" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P59" s="11">
         <v>1.46</v>
@@ -5258,7 +5260,7 @@
       <c r="M63" s="11"/>
       <c r="N63" s="11"/>
       <c r="O63" s="11" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P63" s="11">
         <v>0.42399999999999999</v>
@@ -5531,7 +5533,7 @@
       <c r="M68" s="11"/>
       <c r="N68" s="11"/>
       <c r="O68" s="11" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P68" s="11">
         <v>0.187</v>
@@ -5700,7 +5702,7 @@
       <c r="M71" s="11"/>
       <c r="N71" s="11"/>
       <c r="O71" s="11" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P71" s="11">
         <v>0.36799999999999999</v>
@@ -5869,7 +5871,7 @@
       <c r="M74" s="11"/>
       <c r="N74" s="11"/>
       <c r="O74" s="11" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P74" s="11">
         <v>0.71599999999999997</v>
@@ -6146,7 +6148,7 @@
       <c r="M79" s="11"/>
       <c r="N79" s="11"/>
       <c r="O79" s="11" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P79" s="11">
         <v>1.86</v>
@@ -6423,7 +6425,7 @@
       <c r="M84" s="11"/>
       <c r="N84" s="11"/>
       <c r="O84" s="11" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P84" s="11">
         <v>0.61599999999999999</v>
@@ -6700,7 +6702,7 @@
       <c r="M89" s="11"/>
       <c r="N89" s="11"/>
       <c r="O89" s="11" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P89" s="11">
         <v>0.34100000000000003</v>
@@ -6973,7 +6975,7 @@
       <c r="M94" s="11"/>
       <c r="N94" s="11"/>
       <c r="O94" s="11" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P94" s="11">
         <v>1.4370000000000001</v>
@@ -7766,7 +7768,7 @@
       <c r="M109" s="11"/>
       <c r="N109" s="11"/>
       <c r="O109" s="11" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P109" s="11">
         <v>0.36299999999999999</v>
@@ -7935,7 +7937,7 @@
       <c r="M112" s="11"/>
       <c r="N112" s="11"/>
       <c r="O112" s="11" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P112" s="11">
         <v>0.11</v>
@@ -8104,7 +8106,7 @@
       <c r="M115" s="11"/>
       <c r="N115" s="11"/>
       <c r="O115" s="11" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P115" s="11">
         <v>0.51300000000000001</v>
@@ -8377,7 +8379,7 @@
       <c r="M120" s="11"/>
       <c r="N120" s="11"/>
       <c r="O120" s="11" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P120" s="11">
         <v>0.48799999999999999</v>
@@ -8766,7 +8768,7 @@
       <c r="M127" s="11"/>
       <c r="N127" s="11"/>
       <c r="O127" s="11" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P127" s="11">
         <v>0.16800000000000001</v>
@@ -8947,7 +8949,7 @@
       <c r="M130" s="11"/>
       <c r="N130" s="11"/>
       <c r="O130" s="11" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P130" s="11">
         <v>0.33</v>
@@ -9220,7 +9222,7 @@
       <c r="M135" s="11"/>
       <c r="N135" s="11"/>
       <c r="O135" s="11" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P135" s="11">
         <v>1.4650000000000001</v>
@@ -9445,7 +9447,7 @@
       <c r="M139" s="11"/>
       <c r="N139" s="11"/>
       <c r="O139" s="11" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P139" s="11">
         <v>0.54300000000000004</v>
@@ -9614,7 +9616,7 @@
       <c r="M142" s="11"/>
       <c r="N142" s="11"/>
       <c r="O142" s="11" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P142" s="11">
         <v>1.629</v>
@@ -9839,7 +9841,7 @@
       <c r="M146" s="11"/>
       <c r="N146" s="11"/>
       <c r="O146" s="11" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P146" s="11">
         <v>0.221</v>
@@ -10112,7 +10114,7 @@
       <c r="M151" s="11"/>
       <c r="N151" s="11"/>
       <c r="O151" s="11" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P151" s="11">
         <v>1.583</v>
@@ -10285,7 +10287,7 @@
       <c r="M154" s="11"/>
       <c r="N154" s="11"/>
       <c r="O154" s="11" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P154" s="11">
         <v>0.96</v>
@@ -10402,7 +10404,7 @@
       <c r="M156" s="11"/>
       <c r="N156" s="11"/>
       <c r="O156" s="11" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P156" s="11">
         <v>0.4</v>
@@ -10625,7 +10627,7 @@
       <c r="M160" s="11"/>
       <c r="N160" s="11"/>
       <c r="O160" s="11" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P160" s="11">
         <v>1.218</v>
@@ -10798,7 +10800,7 @@
       <c r="M163" s="11"/>
       <c r="N163" s="11"/>
       <c r="O163" s="11" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P163" s="11">
         <v>1.349</v>
@@ -11227,7 +11229,7 @@
       <c r="M171" s="11"/>
       <c r="N171" s="11"/>
       <c r="O171" s="11" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P171" s="11">
         <v>0.495</v>
@@ -11500,7 +11502,7 @@
       <c r="M176" s="11"/>
       <c r="N176" s="11"/>
       <c r="O176" s="11" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P176" s="11">
         <v>0.48199999999999998</v>
@@ -12189,7 +12191,7 @@
       <c r="M189" s="11"/>
       <c r="N189" s="11"/>
       <c r="O189" s="11" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P189" s="11">
         <v>1.6120000000000001</v>
@@ -12648,16 +12650,16 @@
     </row>
     <row r="198" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C198" s="13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E198" s="4" t="s">
         <v>104</v>
@@ -12700,16 +12702,16 @@
     </row>
     <row r="199" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C199" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E199" s="4" t="s">
         <v>105</v>
@@ -12752,12 +12754,12 @@
     </row>
     <row r="200" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B200" s="4"/>
       <c r="C200" s="13"/>
       <c r="D200" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E200" s="4" t="s">
         <v>105</v>
@@ -12800,16 +12802,16 @@
     </row>
     <row r="201" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C201" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E201" s="4" t="s">
         <v>105</v>
@@ -12852,12 +12854,12 @@
     </row>
     <row r="202" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B202" s="4"/>
       <c r="C202" s="13"/>
       <c r="D202" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E202" s="4" t="s">
         <v>105</v>
@@ -12900,16 +12902,16 @@
     </row>
     <row r="203" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C203" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E203" s="4" t="s">
         <v>104</v>
@@ -12952,12 +12954,12 @@
     </row>
     <row r="204" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B204" s="4"/>
       <c r="C204" s="13"/>
       <c r="D204" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E204" s="4" t="s">
         <v>104</v>
@@ -13000,16 +13002,16 @@
     </row>
     <row r="205" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B205" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C205" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="C205" s="13" t="s">
-        <v>194</v>
-      </c>
       <c r="D205" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E205" s="4" t="s">
         <v>105</v>
@@ -13052,12 +13054,12 @@
     </row>
     <row r="206" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B206" s="4"/>
       <c r="C206" s="13"/>
       <c r="D206" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E206" s="4" t="s">
         <v>105</v>
@@ -13100,16 +13102,16 @@
     </row>
     <row r="207" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C207" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D207" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="B207" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C207" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="D207" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="E207" s="4" t="s">
         <v>104</v>
@@ -13156,7 +13158,7 @@
       </c>
       <c r="C208" s="14"/>
       <c r="D208" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>104</v>
@@ -13169,7 +13171,7 @@
       <c r="L208" s="9"/>
       <c r="M208" s="9"/>
       <c r="O208" s="9" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="R208" s="9">
         <v>9.6000000000000002E-2</v>
@@ -13200,7 +13202,7 @@
       </c>
       <c r="C209" s="14"/>
       <c r="D209" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>104</v>
@@ -13213,7 +13215,7 @@
       <c r="L209" s="9"/>
       <c r="M209" s="9"/>
       <c r="O209" s="9" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="R209" s="9">
         <v>0.151</v>
@@ -13240,7 +13242,7 @@
       </c>
       <c r="C210" s="14"/>
       <c r="D210" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>104</v>
@@ -13253,7 +13255,7 @@
       <c r="L210" s="9"/>
       <c r="M210" s="9"/>
       <c r="O210" s="9" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="R210" s="9">
         <v>8.3000000000000004E-2</v>
@@ -13280,7 +13282,7 @@
       </c>
       <c r="C211" s="14"/>
       <c r="D211" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>104</v>
@@ -13293,7 +13295,7 @@
       <c r="L211" s="9"/>
       <c r="M211" s="9"/>
       <c r="O211" s="9" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="R211" s="9">
         <v>8.5999999999999993E-2</v>
@@ -13320,7 +13322,7 @@
       </c>
       <c r="C212" s="14"/>
       <c r="D212" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>104</v>
@@ -13333,7 +13335,7 @@
       <c r="L212" s="9"/>
       <c r="M212" s="9"/>
       <c r="O212" s="9" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="R212" s="9">
         <v>8.1000000000000003E-2</v>
@@ -13360,7 +13362,7 @@
       </c>
       <c r="C213" s="14"/>
       <c r="D213" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>104</v>
@@ -13373,7 +13375,7 @@
       <c r="L213" s="9"/>
       <c r="M213" s="9"/>
       <c r="O213" s="9" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="R213" s="9">
         <v>8.8999999999999996E-2</v>
@@ -13400,7 +13402,7 @@
       </c>
       <c r="C214" s="14"/>
       <c r="D214" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>104</v>
@@ -13413,7 +13415,7 @@
       <c r="L214" s="9"/>
       <c r="M214" s="9"/>
       <c r="O214" s="9" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="R214" s="9">
         <v>0.08</v>
@@ -13440,7 +13442,7 @@
       </c>
       <c r="C215" s="14"/>
       <c r="D215" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>104</v>
@@ -13453,7 +13455,7 @@
       <c r="L215" s="9"/>
       <c r="M215" s="9"/>
       <c r="O215" s="9" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="R215" s="9">
         <v>0.13200000000000001</v>
@@ -13480,7 +13482,7 @@
       </c>
       <c r="C216" s="14"/>
       <c r="D216" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>104</v>
@@ -13493,7 +13495,7 @@
       <c r="L216" s="9"/>
       <c r="M216" s="9"/>
       <c r="O216" s="9" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="R216" s="9">
         <v>8.3000000000000004E-2</v>
@@ -13520,7 +13522,7 @@
       </c>
       <c r="C217" s="14"/>
       <c r="D217" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>104</v>
@@ -13533,7 +13535,7 @@
       <c r="L217" s="9"/>
       <c r="M217" s="9"/>
       <c r="O217" s="9" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="R217" s="9">
         <v>0.192</v>
@@ -13560,7 +13562,7 @@
       </c>
       <c r="C218" s="14"/>
       <c r="D218" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>104</v>
@@ -13573,7 +13575,7 @@
       <c r="L218" s="9"/>
       <c r="M218" s="9"/>
       <c r="O218" s="9" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="R218" s="9">
         <v>0.12</v>
@@ -13600,7 +13602,7 @@
       </c>
       <c r="C219" s="14"/>
       <c r="D219" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>104</v>
@@ -13613,7 +13615,7 @@
       <c r="L219" s="9"/>
       <c r="M219" s="9"/>
       <c r="O219" s="9" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="R219" s="9">
         <v>0.104</v>
@@ -13640,7 +13642,7 @@
       </c>
       <c r="C220" s="14"/>
       <c r="D220" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>104</v>
@@ -13653,7 +13655,7 @@
       <c r="L220" s="9"/>
       <c r="M220" s="9"/>
       <c r="O220" s="9" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="R220" s="9">
         <v>0.106</v>
@@ -13680,7 +13682,7 @@
       </c>
       <c r="C221" s="14"/>
       <c r="D221" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>104</v>
@@ -13693,7 +13695,7 @@
       <c r="L221" s="9"/>
       <c r="M221" s="9"/>
       <c r="O221" s="9" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="R221" s="9">
         <v>0.40400000000000003</v>
@@ -13720,7 +13722,7 @@
       </c>
       <c r="C222" s="14"/>
       <c r="D222" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>104</v>
@@ -13733,7 +13735,7 @@
       <c r="L222" s="9"/>
       <c r="M222" s="9"/>
       <c r="O222" s="9" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="R222" s="9">
         <v>0.105</v>
@@ -13760,7 +13762,7 @@
       </c>
       <c r="C223" s="14"/>
       <c r="D223" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>104</v>
@@ -13773,7 +13775,7 @@
       <c r="L223" s="9"/>
       <c r="M223" s="9"/>
       <c r="O223" s="9" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="R223" s="9">
         <v>0.23200000000000001</v>
@@ -13800,7 +13802,7 @@
       </c>
       <c r="C224" s="14"/>
       <c r="D224" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>104</v>
@@ -13813,7 +13815,7 @@
       <c r="L224" s="9"/>
       <c r="M224" s="9"/>
       <c r="O224" s="9" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="R224" s="9">
         <v>0.14699999999999999</v>
@@ -13844,7 +13846,7 @@
       </c>
       <c r="C225" s="14"/>
       <c r="D225" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>104</v>
@@ -13857,7 +13859,7 @@
       <c r="L225" s="9"/>
       <c r="M225" s="9"/>
       <c r="O225" s="9" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="R225" s="9">
         <v>1.2090000000000001</v>
@@ -13888,7 +13890,7 @@
       </c>
       <c r="C226" s="14"/>
       <c r="D226" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>104</v>
@@ -13901,7 +13903,7 @@
       <c r="L226" s="9"/>
       <c r="M226" s="9"/>
       <c r="O226" s="9" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="R226" s="9">
         <v>0.157</v>
@@ -13932,7 +13934,7 @@
       </c>
       <c r="C227" s="14"/>
       <c r="D227" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>105</v>
@@ -13945,7 +13947,7 @@
       <c r="L227" s="9"/>
       <c r="M227" s="9"/>
       <c r="O227" s="9" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="R227" s="9">
         <v>0.19</v>
@@ -13972,7 +13974,7 @@
       </c>
       <c r="C228" s="14"/>
       <c r="D228" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>105</v>
@@ -13985,7 +13987,7 @@
       <c r="L228" s="9"/>
       <c r="M228" s="9"/>
       <c r="O228" s="9" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="R228" s="9">
         <v>0.54200000000000004</v>
@@ -14012,7 +14014,7 @@
       </c>
       <c r="C229" s="14"/>
       <c r="D229" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>105</v>
@@ -14025,7 +14027,7 @@
       <c r="L229" s="9"/>
       <c r="M229" s="9"/>
       <c r="O229" s="9" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="R229" s="9">
         <v>0.378</v>
@@ -14056,7 +14058,7 @@
       </c>
       <c r="C230" s="14"/>
       <c r="D230" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>105</v>
@@ -14069,7 +14071,7 @@
       <c r="L230" s="9"/>
       <c r="M230" s="9"/>
       <c r="O230" s="9" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="R230" s="9">
         <v>0.93799999999999994</v>
@@ -14096,7 +14098,7 @@
       </c>
       <c r="C231" s="14"/>
       <c r="D231" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>105</v>
@@ -14109,7 +14111,7 @@
       <c r="L231" s="9"/>
       <c r="M231" s="9"/>
       <c r="O231" s="9" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="R231" s="9">
         <v>0.32600000000000001</v>
@@ -14136,7 +14138,7 @@
       </c>
       <c r="C232" s="14"/>
       <c r="D232" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E232" s="1" t="s">
         <v>105</v>
@@ -14149,7 +14151,7 @@
       <c r="L232" s="9"/>
       <c r="M232" s="9"/>
       <c r="O232" s="9" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="R232" s="9">
         <v>0.28399999999999997</v>
@@ -14176,7 +14178,7 @@
       </c>
       <c r="C233" s="14"/>
       <c r="D233" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>105</v>
@@ -14189,7 +14191,7 @@
       <c r="L233" s="9"/>
       <c r="M233" s="9"/>
       <c r="O233" s="9" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="R233" s="9">
         <v>0.39500000000000002</v>
@@ -14216,7 +14218,7 @@
       </c>
       <c r="C234" s="14"/>
       <c r="D234" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>105</v>
@@ -14229,7 +14231,7 @@
       <c r="L234" s="9"/>
       <c r="M234" s="9"/>
       <c r="O234" s="9" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="R234" s="9">
         <v>0.40899999999999997</v>
@@ -14260,7 +14262,7 @@
       </c>
       <c r="C235" s="14"/>
       <c r="D235" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E235" s="1" t="s">
         <v>105</v>
@@ -14273,7 +14275,7 @@
       <c r="L235" s="9"/>
       <c r="M235" s="9"/>
       <c r="O235" s="9" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="R235" s="9">
         <v>0.26800000000000002</v>
@@ -14300,7 +14302,7 @@
       </c>
       <c r="C236" s="14"/>
       <c r="D236" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>105</v>
@@ -14313,7 +14315,7 @@
       <c r="L236" s="9"/>
       <c r="M236" s="9"/>
       <c r="O236" s="9" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="R236" s="9">
         <v>0.503</v>
@@ -14340,7 +14342,7 @@
       </c>
       <c r="C237" s="14"/>
       <c r="D237" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>105</v>
@@ -14353,7 +14355,7 @@
       <c r="L237" s="9"/>
       <c r="M237" s="9"/>
       <c r="O237" s="9" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="R237" s="9">
         <v>0.31900000000000001</v>
@@ -14380,7 +14382,7 @@
       </c>
       <c r="C238" s="14"/>
       <c r="D238" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>105</v>
@@ -14393,7 +14395,7 @@
       <c r="L238" s="9"/>
       <c r="M238" s="9"/>
       <c r="O238" s="9" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="R238" s="9">
         <v>0.28599999999999998</v>
@@ -14420,7 +14422,7 @@
       </c>
       <c r="C239" s="14"/>
       <c r="D239" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>105</v>
@@ -14433,7 +14435,7 @@
       <c r="L239" s="9"/>
       <c r="M239" s="9"/>
       <c r="O239" s="9" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="R239" s="9">
         <v>0.90700000000000003</v>
@@ -14460,7 +14462,7 @@
       </c>
       <c r="C240" s="14"/>
       <c r="D240" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>105</v>
@@ -14473,7 +14475,7 @@
       <c r="L240" s="9"/>
       <c r="M240" s="9"/>
       <c r="O240" s="9" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="R240" s="9">
         <v>0.27900000000000003</v>
@@ -14500,7 +14502,7 @@
       </c>
       <c r="C241" s="14"/>
       <c r="D241" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>105</v>
@@ -14513,7 +14515,7 @@
       <c r="L241" s="9"/>
       <c r="M241" s="9"/>
       <c r="O241" s="9" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="R241" s="9">
         <v>0.21299999999999999</v>
@@ -14540,7 +14542,7 @@
       </c>
       <c r="C242" s="14"/>
       <c r="D242" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>105</v>
@@ -14553,7 +14555,7 @@
       <c r="L242" s="9"/>
       <c r="M242" s="9"/>
       <c r="O242" s="9" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="R242" s="9">
         <v>0.20899999999999999</v>
@@ -14580,7 +14582,7 @@
       </c>
       <c r="C243" s="14"/>
       <c r="D243" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>105</v>
@@ -14593,7 +14595,7 @@
       <c r="L243" s="9"/>
       <c r="M243" s="9"/>
       <c r="O243" s="9" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="R243" s="9">
         <v>0.27200000000000002</v>
@@ -14620,7 +14622,7 @@
       </c>
       <c r="C244" s="14"/>
       <c r="D244" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>105</v>
@@ -14633,7 +14635,7 @@
       <c r="L244" s="9"/>
       <c r="M244" s="9"/>
       <c r="O244" s="9" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="R244" s="9">
         <v>0.65800000000000003</v>
@@ -14660,7 +14662,7 @@
       </c>
       <c r="C245" s="14"/>
       <c r="D245" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>105</v>
@@ -14673,7 +14675,7 @@
       <c r="L245" s="9"/>
       <c r="M245" s="9"/>
       <c r="O245" s="9" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="R245" s="9">
         <v>0.13500000000000001</v>
@@ -14700,7 +14702,7 @@
       </c>
       <c r="C246" s="14"/>
       <c r="D246" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>105</v>
@@ -14713,7 +14715,7 @@
       <c r="L246" s="9"/>
       <c r="M246" s="9"/>
       <c r="O246" s="9" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="R246" s="9">
         <v>0.52300000000000002</v>
@@ -14740,7 +14742,7 @@
       </c>
       <c r="C247" s="14"/>
       <c r="D247" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>105</v>
@@ -14753,7 +14755,7 @@
       <c r="L247" s="9"/>
       <c r="M247" s="9"/>
       <c r="O247" s="9" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="R247" s="9">
         <v>0.33300000000000002</v>
@@ -14780,7 +14782,7 @@
       </c>
       <c r="C248" s="14"/>
       <c r="D248" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E248" s="1" t="s">
         <v>105</v>
@@ -14793,7 +14795,7 @@
       <c r="L248" s="9"/>
       <c r="M248" s="9"/>
       <c r="O248" s="9" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="R248" s="9">
         <v>0.26500000000000001</v>
@@ -14820,7 +14822,7 @@
       </c>
       <c r="C249" s="14"/>
       <c r="D249" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E249" s="1" t="s">
         <v>105</v>
@@ -14833,7 +14835,7 @@
       <c r="L249" s="9"/>
       <c r="M249" s="9"/>
       <c r="O249" s="9" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="R249" s="9">
         <v>0.45100000000000001</v>
@@ -14860,7 +14862,7 @@
       </c>
       <c r="C250" s="14"/>
       <c r="D250" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>105</v>
@@ -14873,7 +14875,7 @@
       <c r="L250" s="9"/>
       <c r="M250" s="9"/>
       <c r="O250" s="9" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="R250" s="9">
         <v>0.19</v>

--- a/R_files_final/sample_data.xlsx
+++ b/R_files_final/sample_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tegin/Desktop/GitHub2/SARS-CoV-2_in_housepets/R_files_final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867A887F-1174-7D4A-9D8F-9FBC22F27F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD38EE3-A093-184C-9D23-3099CCABB8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="2720" windowWidth="26520" windowHeight="16200" xr2:uid="{439BE0BE-855F-4A44-923B-5C85CB738245}"/>
+    <workbookView xWindow="900" yWindow="1780" windowWidth="26520" windowHeight="16200" xr2:uid="{439BE0BE-855F-4A44-923B-5C85CB738245}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="2" r:id="rId1"/>
@@ -619,10 +619,10 @@
     <t>Vizsla</t>
   </si>
   <si>
-    <t>Housepet serum sample</t>
-  </si>
-  <si>
-    <t>Masked pre-2019 serological control</t>
+    <t>Exposed serum sample</t>
+  </si>
+  <si>
+    <t>Pre-2019 serological control</t>
   </si>
 </sst>
 </file>
@@ -1752,10 +1752,10 @@
   <dimension ref="A1:AA250"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="L186" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="J192" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P10" sqref="P10"/>
+      <selection pane="bottomRight" activeCell="O208" sqref="O208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
